--- a/xlsx/_wiki_江西碘泡虫_intext.xlsx
+++ b/xlsx/_wiki_江西碘泡虫_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>江西碘泡虫</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
 </sst>
 </file>
@@ -456,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,29 +823,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_江西碘泡虫_intext.xlsx
+++ b/xlsx/_wiki_江西碘泡虫_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>江西碘泡虫</t>
   </si>
@@ -23,85 +23,76 @@
     <t>https://zh.wikipedia.org/zh-cn/%E6%B1%9F%E8%A5%BF%E7%A2%98%E6%B3%A1%E8%99%AB</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%88%86%E9%A1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A7%91%E5%AD%B8%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
     <t>科学分类</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E7%95%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8A%A8%E7%89%A9%E7%95%8C</t>
   </si>
   <si>
     <t>动物界</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%BA%E8%83%9E%E5%8B%95%E7%89%A9%E9%96%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%BA%E8%83%9E%E5%8B%95%E7%89%A9%E9%96%80</t>
   </si>
   <si>
     <t>刺胞动物门</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%98%E5%AD%A2%E5%AD%90%E8%99%AB%E7%BA%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B2%98%E5%AD%A2%E5%AD%90%E8%99%AB%E7%BA%B2</t>
   </si>
   <si>
     <t>粘孢子虫纲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%A3%B3%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%8C%E5%A3%B3%E7%9B%AE</t>
   </si>
   <si>
     <t>双壳目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A2%98%E6%B3%A1%E7%A7%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A2%98%E6%B3%A1%E7%A7%91</t>
   </si>
   <si>
     <t>碘泡科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%90%8D%E6%B3%95</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%8C%E5%90%8D%E6%B3%95</t>
   </si>
   <si>
     <t>二名法</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E5%90%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%A6%E5%90%8D</t>
   </si>
   <si>
     <t>学名</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%A5%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B1%9F%E8%A5%BF</t>
   </si>
   <si>
     <t>江西</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E7%94%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AF%84%E7%94%9F</t>
   </si>
   <si>
     <t>寄生</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%89%A9%E7%A7%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BB%B4%E5%9F%BA%E7%89%A9%E7%A7%8D</t>
   </si>
   <si>
     <t>维基物种</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Cnidarian-stub</t>
+    <t>https://zh.wikipedia.org/zh-cn/Template_talk:Cnidarian-stub</t>
   </si>
   <si>
     <t>Template talk-Cnidarian-stub</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%A5%BF%E7%A2%98%E6%B3%A1%E8%99%AB</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -450,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,52 +768,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
